--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -84,7 +84,49 @@
  放送大学教授 島内裕子</t>
   </si>
   <si>
-    <t>ソート用</t>
+    <t>年</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/kasen/manifests/kasen.json</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>コレクション</t>
   </si>
   <si>
     <t>サムネイル</t>
@@ -93,52 +135,10 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/27/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/kasen/manifests/kasen.json</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
-  </si>
-  <si>
     <t>利用条件</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>年</t>
   </si>
 </sst>
 </file>
@@ -538,31 +538,31 @@
         <v>24</v>
       </c>
       <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -590,39 +590,39 @@
       <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="T2" r:id="rId3"/>
-    <hyperlink ref="U2" r:id="rId4"/>
-    <hyperlink ref="V2" r:id="rId5"/>
-    <hyperlink ref="W2" r:id="rId6"/>
+    <hyperlink ref="T2" r:id="rId2"/>
+    <hyperlink ref="U2" r:id="rId3"/>
+    <hyperlink ref="V2" r:id="rId4"/>
+    <hyperlink ref="Y2" r:id="rId5"/>
+    <hyperlink ref="Z2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -14,66 +14,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>『三十六歌撰』絵巻</t>
   </si>
   <si>
     <t>請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
     <t>A00:6251</t>
   </si>
   <si>
     <t>登録番号</t>
   </si>
   <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
     <t>状態</t>
   </si>
   <si>
-    <t>uterms:bunko</t>
+    <t>dcterms:type</t>
   </si>
   <si>
     <t>出版者</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>出版年</t>
   </si>
   <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
     <t>大きさ</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
     <t>1軸</t>
   </si>
   <si>
     <t>別書名</t>
   </si>
   <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
     <t>一般注記</t>
   </si>
   <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
     <t>写本</t>
   </si>
   <si>
     <t>著者標目</t>
   </si>
   <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
     <t>高田圓乗畫 , 大田南畝書</t>
   </si>
   <si>
     <t>本文言語</t>
   </si>
   <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
     <t>日本語</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
     <t>解説</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
   </si>
   <si>
     <t>『三十六歌撰』絵巻_x000D_
@@ -84,61 +120,100 @@
  放送大学教授 島内裕子</t>
   </si>
   <si>
-    <t>年</t>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
   </si>
   <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/27/full/200,151/0/default.jpg</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
-    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
   </si>
   <si>
     <t>ソート用項目</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/kasen/manifests/kasen.json</t>
-  </si>
-  <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/27/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -156,10 +231,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,14 +253,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,79 +569,79 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="U1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -570,59 +649,142 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="W2" t="s">
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3">
         <v>1</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="T2" r:id="rId2"/>
-    <hyperlink ref="U2" r:id="rId3"/>
-    <hyperlink ref="V2" r:id="rId4"/>
-    <hyperlink ref="Y2" r:id="rId5"/>
-    <hyperlink ref="Z2" r:id="rId6"/>
+    <hyperlink ref="O3" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="Q3" r:id="rId3"/>
+    <hyperlink ref="R3" r:id="rId4"/>
+    <hyperlink ref="S3" r:id="rId5"/>
+    <hyperlink ref="W3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -1,244 +1,267 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>請求記号</t>
+  </si>
+  <si>
+    <t>登録番号</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>出版者</t>
+  </si>
+  <si>
+    <t>出版年</t>
+  </si>
+  <si>
+    <t>大きさ</t>
+  </si>
+  <si>
+    <t>別書名</t>
+  </si>
+  <si>
+    <t>一般注記</t>
+  </si>
+  <si>
+    <t>著者標目</t>
+  </si>
+  <si>
+    <t>本文言語</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>『三十六歌撰』絵巻</t>
   </si>
   <si>
-    <t>請求記号</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
     <t>A00:6251</t>
   </si>
   <si>
-    <t>登録番号</t>
-  </si>
-  <si>
-    <t>dcndl:sourceIdentifier</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>dcterms:type</t>
-  </si>
-  <si>
-    <t>出版者</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>出版年</t>
-  </si>
-  <si>
-    <t>dcterms:date</t>
-  </si>
-  <si>
-    <t>大きさ</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
     <t>1軸</t>
   </si>
   <si>
-    <t>別書名</t>
-  </si>
-  <si>
-    <t>dcndl:alternative</t>
-  </si>
-  <si>
-    <t>一般注記</t>
-  </si>
-  <si>
-    <t>archiveshub:note</t>
-  </si>
-  <si>
     <t>写本</t>
   </si>
   <si>
-    <t>著者標目</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
     <t>高田圓乗畫 , 大田南畝書</t>
   </si>
   <si>
-    <t>本文言語</t>
-  </si>
-  <si>
-    <t>dcterms:language</t>
-  </si>
-  <si>
     <t>日本語</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-  </si>
-  <si>
-    <t>解説</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>『三十六歌撰』絵巻_x000D_
-  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。_x000D_
-_x000D_
-  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。_x000D_
-_x000D_
+    <t>『三十六歌撰』絵巻
+  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。
+  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。
  放送大学教授 島内裕子</t>
   </si>
   <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
     <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/27/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -253,23 +276,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -557,235 +573,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
       </c>
       <c r="S2" t="s">
         <v>48</v>
       </c>
       <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AD2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L3" t="s"/>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s">
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z3">
+        <v>73</v>
+      </c>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+      <c r="Z3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s"/>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
-    <hyperlink ref="Q3" r:id="rId3"/>
-    <hyperlink ref="R3" r:id="rId4"/>
-    <hyperlink ref="S3" r:id="rId5"/>
-    <hyperlink ref="W3" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -230,7 +230,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/27/full/200,151/0/default.jpg</t>

--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -1,267 +1,274 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>『三十六歌撰』絵巻</t>
+  </si>
+  <si>
     <t>請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>A00:6251</t>
+  </si>
+  <si>
     <t>登録番号</t>
   </si>
   <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
     <t>状態</t>
   </si>
   <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
     <t>出版者</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>出版年</t>
   </si>
   <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
     <t>大きさ</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>1軸</t>
+  </si>
+  <si>
     <t>別書名</t>
   </si>
   <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
     <t>一般注記</t>
   </si>
   <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
+    <t>写本</t>
+  </si>
+  <si>
     <t>著者標目</t>
   </si>
   <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>高田圓乗畫 , 大田南畝書</t>
+  </si>
+  <si>
     <t>本文言語</t>
   </si>
   <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
     <t>解説</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>『三十六歌撰』絵巻_x000D_
+  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。_x000D_
+_x000D_
+  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。_x000D_
+_x000D_
+ 放送大学教授 島内裕子</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
+  </si>
+  <si>
     <t>利用条件</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60f65e31b3c111806de77eb003f35bd00e7f42a1.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
-    <t>dcndl:sourceIdentifier</t>
-  </si>
-  <si>
-    <t>dcterms:type</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>dcterms:date</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>dcndl:alternative</t>
-  </si>
-  <si>
-    <t>archiveshub:note</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
-    <t>dcterms:language</t>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>『三十六歌撰』絵巻</t>
-  </si>
-  <si>
-    <t>A00:6251</t>
-  </si>
-  <si>
-    <t>1軸</t>
-  </si>
-  <si>
-    <t>写本</t>
-  </si>
-  <si>
-    <t>高田圓乗畫 , 大田南畝書</t>
-  </si>
-  <si>
-    <t>日本語</t>
-  </si>
-  <si>
-    <t>『三十六歌撰』絵巻
-  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。
-  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。
- 放送大学教授 島内裕子</t>
-  </si>
-  <si>
-    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/27/full/200,151/0/default.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -276,16 +283,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -573,277 +587,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
       </c>
       <c r="S2" t="s">
         <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AA2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="n">
+        <v>73</v>
+      </c>
+      <c r="AE2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+        <v>5</v>
+      </c>
       <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s"/>
+        <v>16</v>
+      </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="O3" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="Q3" r:id="rId3"/>
+    <hyperlink ref="R3" r:id="rId4"/>
+    <hyperlink ref="S3" r:id="rId5"/>
+    <hyperlink ref="Z3" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -1,274 +1,267 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>請求記号</t>
+  </si>
+  <si>
+    <t>登録番号</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>出版者</t>
+  </si>
+  <si>
+    <t>出版年</t>
+  </si>
+  <si>
+    <t>大きさ</t>
+  </si>
+  <si>
+    <t>別書名</t>
+  </si>
+  <si>
+    <t>一般注記</t>
+  </si>
+  <si>
+    <t>著者標目</t>
+  </si>
+  <si>
+    <t>本文言語</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>『三十六歌撰』絵巻</t>
   </si>
   <si>
-    <t>請求記号</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
     <t>A00:6251</t>
   </si>
   <si>
-    <t>登録番号</t>
-  </si>
-  <si>
-    <t>dcndl:sourceIdentifier</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>dcterms:type</t>
-  </si>
-  <si>
-    <t>出版者</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>出版年</t>
-  </si>
-  <si>
-    <t>dcterms:date</t>
-  </si>
-  <si>
-    <t>大きさ</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
     <t>1軸</t>
   </si>
   <si>
-    <t>別書名</t>
-  </si>
-  <si>
-    <t>dcndl:alternative</t>
-  </si>
-  <si>
-    <t>一般注記</t>
-  </si>
-  <si>
-    <t>archiveshub:note</t>
-  </si>
-  <si>
     <t>写本</t>
   </si>
   <si>
-    <t>著者標目</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
     <t>高田圓乗畫 , 大田南畝書</t>
   </si>
   <si>
-    <t>本文言語</t>
-  </si>
-  <si>
-    <t>dcterms:language</t>
-  </si>
-  <si>
     <t>日本語</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-  </si>
-  <si>
-    <t>解説</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>『三十六歌撰』絵巻_x000D_
-  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。_x000D_
-_x000D_
-  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。_x000D_
-_x000D_
+    <t>『三十六歌撰』絵巻
+  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。
+  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。
  放送大学教授 島内裕子</t>
   </si>
   <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
     <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60f65e31b3c111806de77eb003f35bd00e7f42a1.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -283,23 +276,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -587,265 +573,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>72</v>
-      </c>
       <c r="AE1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
         <v>48</v>
       </c>
       <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>71</v>
-      </c>
       <c r="AD2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE2">
+        <v>59</v>
+      </c>
+      <c r="AE2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H3" t="s"/>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="L3" t="s"/>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" t="s">
+        <v>72</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
       <c r="W3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+      <c r="Z3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" t="s"/>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
-    <hyperlink ref="Q3" r:id="rId3"/>
-    <hyperlink ref="R3" r:id="rId4"/>
-    <hyperlink ref="S3" r:id="rId5"/>
-    <hyperlink ref="Z3" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -1,267 +1,274 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>『三十六歌撰』絵巻</t>
+  </si>
+  <si>
     <t>請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>A00:6251</t>
+  </si>
+  <si>
     <t>登録番号</t>
   </si>
   <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
     <t>状態</t>
   </si>
   <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
     <t>出版者</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>出版年</t>
   </si>
   <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
     <t>大きさ</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>1軸</t>
+  </si>
+  <si>
     <t>別書名</t>
   </si>
   <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
     <t>一般注記</t>
   </si>
   <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
+    <t>写本</t>
+  </si>
+  <si>
     <t>著者標目</t>
   </si>
   <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>高田圓乗畫 , 大田南畝書</t>
+  </si>
+  <si>
     <t>本文言語</t>
   </si>
   <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
     <t>解説</t>
   </si>
   <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>『三十六歌撰』絵巻_x000D_
+  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。_x000D_
+_x000D_
+  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。_x000D_
+_x000D_
+ 放送大学教授 島内裕子</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
+  </si>
+  <si>
     <t>利用条件</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60f65e31b3c111806de77eb003f35bd00e7f42a1.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
-    <t>dcndl:sourceIdentifier</t>
-  </si>
-  <si>
-    <t>dcterms:type</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>dcterms:date</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>dcndl:alternative</t>
-  </si>
-  <si>
-    <t>archiveshub:note</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
-    <t>dcterms:language</t>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>『三十六歌撰』絵巻</t>
-  </si>
-  <si>
-    <t>A00:6251</t>
-  </si>
-  <si>
-    <t>1軸</t>
-  </si>
-  <si>
-    <t>写本</t>
-  </si>
-  <si>
-    <t>高田圓乗畫 , 大田南畝書</t>
-  </si>
-  <si>
-    <t>日本語</t>
-  </si>
-  <si>
-    <t>『三十六歌撰』絵巻
-  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。
-  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。
- 放送大学教授 島内裕子</t>
-  </si>
-  <si>
-    <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60f65e31b3c111806de77eb003f35bd00e7f42a1.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -276,16 +283,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -573,277 +587,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>47</v>
       </c>
       <c r="S2" t="s">
         <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AA2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AB2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="n">
+        <v>73</v>
+      </c>
+      <c r="AE2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
+        <v>5</v>
+      </c>
       <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s"/>
+        <v>16</v>
+      </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
-      <c r="Z3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s"/>
-      <c r="AB3" t="s"/>
-      <c r="AC3" t="s"/>
-      <c r="AD3" t="s"/>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="O3" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="Q3" r:id="rId3"/>
+    <hyperlink ref="R3" r:id="rId4"/>
+    <hyperlink ref="S3" r:id="rId5"/>
+    <hyperlink ref="Z3" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -1,274 +1,273 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>請求記号</t>
+  </si>
+  <si>
+    <t>登録番号</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>出版者</t>
+  </si>
+  <si>
+    <t>出版年</t>
+  </si>
+  <si>
+    <t>大きさ</t>
+  </si>
+  <si>
+    <t>別書名</t>
+  </si>
+  <si>
+    <t>一般注記</t>
+  </si>
+  <si>
+    <t>著者標目</t>
+  </si>
+  <si>
+    <t>本文言語</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>iiif viewer</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>dcndl:sourceIdentifier</t>
+  </si>
+  <si>
+    <t>dcterms:type</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:date</t>
+  </si>
+  <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>dcndl:alternative</t>
+  </si>
+  <si>
+    <t>archiveshub:note</t>
+  </si>
+  <si>
+    <t>dcterms:creator</t>
+  </si>
+  <si>
+    <t>dcterms:language</t>
+  </si>
+  <si>
+    <t>dcterms:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:description</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>『三十六歌撰』絵巻</t>
   </si>
   <si>
-    <t>請求記号</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
     <t>A00:6251</t>
   </si>
   <si>
-    <t>登録番号</t>
-  </si>
-  <si>
-    <t>dcndl:sourceIdentifier</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>dcterms:type</t>
-  </si>
-  <si>
-    <t>出版者</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>出版年</t>
-  </si>
-  <si>
-    <t>dcterms:date</t>
-  </si>
-  <si>
-    <t>大きさ</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
     <t>1軸</t>
   </si>
   <si>
-    <t>別書名</t>
-  </si>
-  <si>
-    <t>dcndl:alternative</t>
-  </si>
-  <si>
-    <t>一般注記</t>
-  </si>
-  <si>
-    <t>archiveshub:note</t>
-  </si>
-  <si>
     <t>写本</t>
   </si>
   <si>
-    <t>著者標目</t>
-  </si>
-  <si>
-    <t>dcterms:creator</t>
-  </si>
-  <si>
     <t>高田圓乗畫 , 大田南畝書</t>
   </si>
   <si>
-    <t>本文言語</t>
-  </si>
-  <si>
-    <t>dcterms:language</t>
-  </si>
-  <si>
     <t>日本語</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>dcterms:identifier</t>
-  </si>
-  <si>
-    <t>解説</t>
-  </si>
-  <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
-    <t>『三十六歌撰』絵巻_x000D_
-  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。_x000D_
-_x000D_
-  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。_x000D_
-_x000D_
+    <t>『三十六歌撰』絵巻
+  本『三十六歌撰』絵巻(一巻)は、藤原公任の『三十六人撰』に選ばれている歌人(三十六歌仙)の和歌から、一人一首ずつを選び、歌人名と和歌を大田南畝が染筆したものである。また、それぞれの和歌の内容を、狩野派の絵師である高田円乗が、淡彩で簡略な風景画で描いている。ただし、三十六歌仙のうち、斎宮女御と源重之が欠落しているので、合計三十四人分の和歌と絵からなる。
+  本絵巻は、三十六歌仙の肖像画ではなく、和歌の風景が描かれているのが特徴である。絵巻の制作年、および制作の動機・目的は未詳。絵師の円乗は、詳しい経歴は不明だが、孔子伝や兼好伝の挿絵も描いている。『大田南畝全集』によれば、円乗は南畝や朋誠堂喜三二と交友があった。本絵巻の末尾に、桐廼舎主人(岡野半牧)の考証で、円乗が「徒士組」だったと記されているのは、円乗の伝記に関する新資料か。だとすれば、南畝・喜三二・円乗の三人には、武家の出身という共通項があることになる。南畝と円乗による、珍しい合作絵巻の佳品である。南葵文庫旧蔵(請求記号A00:6251)。
  放送大学教授 島内裕子</t>
   </si>
   <si>
-    <t>bibo:identifier</t>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/42219787-59b5-4570-b811-c3d1ff7ad321.json</t>
   </si>
   <si>
     <t>42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/</t>
   </si>
   <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/kasen/document/42219787-59b5-4570-b811-c3d1ff7ad321</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/60f65e31b3c111806de77eb003f35bd00e7f42a1.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/9</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
     <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
   </si>
   <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42219787-59b5-4570-b811-c3d1ff7ad321/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -283,23 +282,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -587,265 +579,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
       </c>
       <c r="S2" t="s">
         <v>48</v>
       </c>
       <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AD2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" t="s">
         <v>73</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="T3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3">
+        <v>74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s"/>
+      <c r="Z3" t="s"/>
+      <c r="AA3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB3" t="s"/>
+      <c r="AC3" t="s"/>
+      <c r="AD3" t="s"/>
+      <c r="AE3" t="s"/>
+      <c r="AF3" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O3" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
-    <hyperlink ref="Q3" r:id="rId3"/>
-    <hyperlink ref="R3" r:id="rId4"/>
-    <hyperlink ref="S3" r:id="rId5"/>
-    <hyperlink ref="Z3" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/kasen/metadata/data.xlsx
+++ b/docs/collections/kasen/metadata/data.xlsx
@@ -15,45 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
-  <si>
-    <t>タイトル</t>
-  </si>
-  <si>
-    <t>請求記号</t>
-  </si>
-  <si>
-    <t>登録番号</t>
-  </si>
-  <si>
-    <t>状態</t>
-  </si>
-  <si>
-    <t>出版者</t>
-  </si>
-  <si>
-    <t>出版年</t>
-  </si>
-  <si>
-    <t>大きさ</t>
-  </si>
-  <si>
-    <t>別書名</t>
-  </si>
-  <si>
-    <t>一般注記</t>
-  </si>
-  <si>
-    <t>著者標目</t>
-  </si>
-  <si>
-    <t>本文言語</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+  <si>
+    <t>タイトル/Title</t>
+  </si>
+  <si>
+    <t>請求記号/Call Number</t>
+  </si>
+  <si>
+    <t>登録番号/Registration Number</t>
+  </si>
+  <si>
+    <t>状態/Status</t>
+  </si>
+  <si>
+    <t>文庫区分/Collection</t>
+  </si>
+  <si>
+    <t>出版者/Publisher</t>
+  </si>
+  <si>
+    <t>出版年/Publication Date</t>
+  </si>
+  <si>
+    <t>大きさ/Extent</t>
+  </si>
+  <si>
+    <t>別書名/Alternative Title</t>
+  </si>
+  <si>
+    <t>一般注記/Note</t>
+  </si>
+  <si>
+    <t>著者/Author</t>
+  </si>
+  <si>
+    <t>本文言語/Language</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>解説</t>
+    <t>解説/Description</t>
   </si>
   <si>
     <t>iiif viewer</t>
@@ -120,6 +123,9 @@
   </si>
   <si>
     <t>dcterms:type</t>
+  </si>
+  <si>
+    <t>uterms:bunko</t>
   </si>
   <si>
     <t>dcterms:publisher</t>
@@ -584,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +598,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,10 +642,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -689,172 +695,179 @@
       <c r="AF1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF2" t="n">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
-      <c r="G3" t="s">
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" t="s"/>
       <c r="Z3" t="s"/>
-      <c r="AA3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" t="s"/>
+      <c r="AA3" t="s"/>
+      <c r="AB3" t="s">
+        <v>78</v>
+      </c>
       <c r="AC3" t="s"/>
       <c r="AD3" t="s"/>
       <c r="AE3" t="s"/>
-      <c r="AF3" t="n">
+      <c r="AF3" t="s"/>
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
